--- a/Prices.xlsx
+++ b/Prices.xlsx
@@ -20,13 +20,13 @@
     <t>Quote Prices</t>
   </si>
   <si>
-    <t>$36.42/mo</t>
+    <t>$79.00/mo</t>
   </si>
   <si>
-    <t>$41.25/mo</t>
+    <t>$79.92/mo</t>
   </si>
   <si>
-    <t>$96.83/mo</t>
+    <t>$93.08/mo</t>
   </si>
 </sst>
 </file>

--- a/Prices.xlsx
+++ b/Prices.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>SNo.</t>
   </si>
@@ -20,13 +20,10 @@
     <t>Quote Prices</t>
   </si>
   <si>
-    <t>$79.00/mo</t>
+    <t/>
   </si>
   <si>
-    <t>$79.92/mo</t>
-  </si>
-  <si>
-    <t>$93.08/mo</t>
+    <t>$79.00/mo</t>
   </si>
 </sst>
 </file>
@@ -106,7 +103,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
